--- a/app/temp.xlsx
+++ b/app/temp.xlsx
@@ -1139,7 +1139,7 @@
         <v>18.5</v>
       </c>
       <c r="D55" t="n">
-        <v>17.8</v>
+        <v>18.6</v>
       </c>
     </row>
   </sheetData>
